--- a/planificacion.xlsx
+++ b/planificacion.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documentos\2015-B\Apps Libres\proyecto final\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>actividades</t>
   </si>
@@ -177,13 +173,67 @@
   </si>
   <si>
     <t>sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Encargado</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Fredy B.</t>
+  </si>
+  <si>
+    <t>Pantalla de inicio</t>
+  </si>
+  <si>
+    <t>Creación formulario para registro de estudiante</t>
+  </si>
+  <si>
+    <t>Diseñar pantalla</t>
+  </si>
+  <si>
+    <t>Programar interfaz</t>
+  </si>
+  <si>
+    <t>Stalin G.</t>
+  </si>
+  <si>
+    <t>Carlos S.</t>
+  </si>
+  <si>
+    <t>Pantalla selección Pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla de prueba </t>
+  </si>
+  <si>
+    <t>Angel M.</t>
+  </si>
+  <si>
+    <t>Mostrar resultados</t>
+  </si>
+  <si>
+    <t>Oscar L.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +248,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +269,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,15 +296,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,7 +462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,7 +639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,4 +996,320 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="7">
+        <v>42389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="7">
+        <v>42389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="7">
+        <v>42389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7">
+        <v>42389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>